--- a/大乐透.xlsx
+++ b/大乐透.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_双色球预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3554950-FCA6-46C7-960A-31F563F91E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A08CDEC-BAA2-4EEB-8D55-5C5785C2ED13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19118" yWindow="-3450" windowWidth="14565" windowHeight="17362" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,12 +96,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -406,15 +409,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2705"/>
+  <dimension ref="A1:G2706"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2669" workbookViewId="0">
-      <selection activeCell="E2708" sqref="E2708"/>
+    <sheetView tabSelected="1" topLeftCell="A2678" workbookViewId="0">
+      <selection activeCell="I2693" sqref="I2693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="7" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -62632,6 +62636,29 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2706" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2706" s="3">
+        <v>31</v>
+      </c>
+      <c r="B2706" s="3">
+        <v>20</v>
+      </c>
+      <c r="C2706" s="3">
+        <v>23</v>
+      </c>
+      <c r="D2706" s="3">
+        <v>27</v>
+      </c>
+      <c r="E2706" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2706" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2706" s="1">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/大乐透.xlsx
+++ b/大乐透.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_双色球预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFACF12E-CCB3-482D-AC55-25BC7D2567DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFD44A1-57F8-487D-88DC-5F111AE5E0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="33975" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2707"/>
+  <dimension ref="A1:G2714"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2665" workbookViewId="0">
-      <selection activeCell="F2707" sqref="F2707"/>
+    <sheetView tabSelected="1" topLeftCell="A2679" workbookViewId="0">
+      <selection activeCell="F2715" sqref="F2715"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -62672,6 +62672,167 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2708" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2708">
+        <v>3</v>
+      </c>
+      <c r="B2708">
+        <v>7</v>
+      </c>
+      <c r="C2708">
+        <v>14</v>
+      </c>
+      <c r="D2708">
+        <v>15</v>
+      </c>
+      <c r="E2708">
+        <v>19</v>
+      </c>
+      <c r="F2708">
+        <v>6</v>
+      </c>
+      <c r="G2708">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2709" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2709">
+        <v>2</v>
+      </c>
+      <c r="B2709">
+        <v>8</v>
+      </c>
+      <c r="C2709">
+        <v>16</v>
+      </c>
+      <c r="D2709">
+        <v>31</v>
+      </c>
+      <c r="E2709">
+        <v>32</v>
+      </c>
+      <c r="F2709">
+        <v>4</v>
+      </c>
+      <c r="G2709">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2710">
+        <v>3</v>
+      </c>
+      <c r="B2710">
+        <v>4</v>
+      </c>
+      <c r="C2710">
+        <v>21</v>
+      </c>
+      <c r="D2710">
+        <v>22</v>
+      </c>
+      <c r="E2710">
+        <v>27</v>
+      </c>
+      <c r="F2710">
+        <v>5</v>
+      </c>
+      <c r="G2710">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2711" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2711">
+        <v>6</v>
+      </c>
+      <c r="B2711">
+        <v>8</v>
+      </c>
+      <c r="C2711">
+        <v>11</v>
+      </c>
+      <c r="D2711">
+        <v>18</v>
+      </c>
+      <c r="E2711">
+        <v>20</v>
+      </c>
+      <c r="F2711">
+        <v>5</v>
+      </c>
+      <c r="G2711">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2712" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2712">
+        <v>3</v>
+      </c>
+      <c r="B2712">
+        <v>16</v>
+      </c>
+      <c r="C2712">
+        <v>20</v>
+      </c>
+      <c r="D2712">
+        <v>21</v>
+      </c>
+      <c r="E2712">
+        <v>27</v>
+      </c>
+      <c r="F2712">
+        <v>9</v>
+      </c>
+      <c r="G2712">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2713" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2713">
+        <v>15</v>
+      </c>
+      <c r="B2713">
+        <v>17</v>
+      </c>
+      <c r="C2713">
+        <v>21</v>
+      </c>
+      <c r="D2713">
+        <v>22</v>
+      </c>
+      <c r="E2713">
+        <v>26</v>
+      </c>
+      <c r="F2713">
+        <v>2</v>
+      </c>
+      <c r="G2713">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2714" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2714">
+        <v>8</v>
+      </c>
+      <c r="B2714">
+        <v>11</v>
+      </c>
+      <c r="C2714">
+        <v>21</v>
+      </c>
+      <c r="D2714">
+        <v>23</v>
+      </c>
+      <c r="E2714">
+        <v>27</v>
+      </c>
+      <c r="F2714">
+        <v>3</v>
+      </c>
+      <c r="G2714">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/大乐透.xlsx
+++ b/大乐透.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_双色球预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74383845-5F2B-4895-8ABA-0E6208DBF811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1644BFD4-C195-434B-9A2F-47B122EA1DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29550" yWindow="-4150" windowWidth="28800" windowHeight="15350" xr2:uid="{28AB6A21-890B-4C72-BE29-DCD7F3C6E42F}"/>
+    <workbookView xWindow="9285" yWindow="4125" windowWidth="28800" windowHeight="15345" xr2:uid="{38A67EAE-8D9F-4C42-A8A3-C8A1CF7FB13B}"/>
   </bookViews>
   <sheets>
     <sheet name="大乐透" sheetId="1" r:id="rId1"/>
@@ -400,9 +400,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DD4B92-94D4-44B7-80E3-E2D346B88079}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G2718"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224CA4A5-0CC0-484A-B023-FC69FE5F7A9B}">
+  <dimension ref="A1:G2720"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -62922,6 +62921,52 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2719" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2719">
+        <v>18</v>
+      </c>
+      <c r="B2719">
+        <v>21</v>
+      </c>
+      <c r="C2719">
+        <v>34</v>
+      </c>
+      <c r="D2719">
+        <v>20</v>
+      </c>
+      <c r="E2719">
+        <v>15</v>
+      </c>
+      <c r="F2719">
+        <v>10</v>
+      </c>
+      <c r="G2719">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2720" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2720">
+        <v>13</v>
+      </c>
+      <c r="B2720">
+        <v>29</v>
+      </c>
+      <c r="C2720">
+        <v>31</v>
+      </c>
+      <c r="D2720">
+        <v>4</v>
+      </c>
+      <c r="E2720">
+        <v>2</v>
+      </c>
+      <c r="F2720">
+        <v>5</v>
+      </c>
+      <c r="G2720">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/大乐透.xlsx
+++ b/大乐透.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_双色球预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1644BFD4-C195-434B-9A2F-47B122EA1DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47245310-35A4-454E-AC3B-65B394C27A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9285" yWindow="4125" windowWidth="28800" windowHeight="15345" xr2:uid="{38A67EAE-8D9F-4C42-A8A3-C8A1CF7FB13B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{57F18D31-F31B-4D13-BE75-F45AD3C590F8}"/>
   </bookViews>
   <sheets>
     <sheet name="大乐透" sheetId="1" r:id="rId1"/>
@@ -400,8 +400,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224CA4A5-0CC0-484A-B023-FC69FE5F7A9B}">
-  <dimension ref="A1:G2720"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EEFD55-3606-4698-B384-5EF84D5620E4}">
+  <dimension ref="A1:G2721"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -62967,6 +62967,29 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2721" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2721">
+        <v>4</v>
+      </c>
+      <c r="B2721">
+        <v>29</v>
+      </c>
+      <c r="C2721">
+        <v>30</v>
+      </c>
+      <c r="D2721">
+        <v>2</v>
+      </c>
+      <c r="E2721">
+        <v>11</v>
+      </c>
+      <c r="F2721">
+        <v>8</v>
+      </c>
+      <c r="G2721">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/大乐透.xlsx
+++ b/大乐透.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_双色球预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47245310-35A4-454E-AC3B-65B394C27A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5582EEC0-E6E7-4B5F-B9EA-FA9533BFF78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{57F18D31-F31B-4D13-BE75-F45AD3C590F8}"/>
+    <workbookView xWindow="4845" yWindow="4140" windowWidth="28800" windowHeight="15345" xr2:uid="{96BB480E-2233-4482-B0C8-BBA236CCF9D7}"/>
   </bookViews>
   <sheets>
     <sheet name="大乐透" sheetId="1" r:id="rId1"/>
@@ -400,8 +400,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EEFD55-3606-4698-B384-5EF84D5620E4}">
-  <dimension ref="A1:G2721"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96298CD6-3F1F-42A3-84D4-56A7C1A38337}">
+  <dimension ref="A1:G2722"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -62990,6 +62990,29 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2722" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2722">
+        <v>23</v>
+      </c>
+      <c r="B2722">
+        <v>29</v>
+      </c>
+      <c r="C2722">
+        <v>14</v>
+      </c>
+      <c r="D2722">
+        <v>33</v>
+      </c>
+      <c r="E2722">
+        <v>30</v>
+      </c>
+      <c r="F2722">
+        <v>12</v>
+      </c>
+      <c r="G2722">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/大乐透.xlsx
+++ b/大乐透.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_双色球预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5582EEC0-E6E7-4B5F-B9EA-FA9533BFF78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA445926-DB07-473C-A633-4B0AB547F249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="4140" windowWidth="28800" windowHeight="15345" xr2:uid="{96BB480E-2233-4482-B0C8-BBA236CCF9D7}"/>
+    <workbookView xWindow="5190" yWindow="4485" windowWidth="28800" windowHeight="15345" xr2:uid="{FD50664E-8EC3-47AB-8808-27E7767CB3B5}"/>
   </bookViews>
   <sheets>
     <sheet name="大乐透" sheetId="1" r:id="rId1"/>
@@ -400,8 +400,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96298CD6-3F1F-42A3-84D4-56A7C1A38337}">
-  <dimension ref="A1:G2722"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D121AA-CE3D-4C59-B52C-FA79CC42F807}">
+  <dimension ref="A1:G2723"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -63013,6 +63013,29 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2723" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2723">
+        <v>29</v>
+      </c>
+      <c r="B2723">
+        <v>16</v>
+      </c>
+      <c r="C2723">
+        <v>3</v>
+      </c>
+      <c r="D2723">
+        <v>12</v>
+      </c>
+      <c r="E2723">
+        <v>21</v>
+      </c>
+      <c r="F2723">
+        <v>2</v>
+      </c>
+      <c r="G2723">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/大乐透.xlsx
+++ b/大乐透.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_双色球预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA445926-DB07-473C-A633-4B0AB547F249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E66A6012-6DA3-4433-9F26-54C020535387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="4485" windowWidth="28800" windowHeight="15345" xr2:uid="{FD50664E-8EC3-47AB-8808-27E7767CB3B5}"/>
+    <workbookView xWindow="4845" yWindow="4140" windowWidth="28800" windowHeight="15345" xr2:uid="{B7D583CF-4F75-49F6-A895-66113B9A7286}"/>
   </bookViews>
   <sheets>
     <sheet name="大乐透" sheetId="1" r:id="rId1"/>
@@ -400,8 +400,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D121AA-CE3D-4C59-B52C-FA79CC42F807}">
-  <dimension ref="A1:G2723"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C2BBC3-F33D-4828-991B-11F826990A41}">
+  <dimension ref="A1:G2724"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -63036,6 +63036,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2724" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2724">
+        <v>25</v>
+      </c>
+      <c r="B2724">
+        <v>29</v>
+      </c>
+      <c r="C2724">
+        <v>8</v>
+      </c>
+      <c r="D2724">
+        <v>10</v>
+      </c>
+      <c r="E2724">
+        <v>30</v>
+      </c>
+      <c r="F2724">
+        <v>1</v>
+      </c>
+      <c r="G2724">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/大乐透.xlsx
+++ b/大乐透.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_双色球预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E66A6012-6DA3-4433-9F26-54C020535387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ABBD3B9-E79E-4638-9542-A86260327A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="4140" windowWidth="28800" windowHeight="15345" xr2:uid="{B7D583CF-4F75-49F6-A895-66113B9A7286}"/>
+    <workbookView xWindow="4845" yWindow="4140" windowWidth="28800" windowHeight="15345" xr2:uid="{BEC51E2D-1721-4C06-AD4F-462493DC7001}"/>
   </bookViews>
   <sheets>
     <sheet name="大乐透" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C2BBC3-F33D-4828-991B-11F826990A41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFB941F-1E7D-41A4-9DD8-980B1938842B}">
   <dimension ref="A1:G2724"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/大乐透.xlsx
+++ b/大乐透.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_双色球预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ABBD3B9-E79E-4638-9542-A86260327A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8091B9C-FF50-4163-B562-E2B34120BB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="4140" windowWidth="28800" windowHeight="15345" xr2:uid="{BEC51E2D-1721-4C06-AD4F-462493DC7001}"/>
+    <workbookView xWindow="4635" yWindow="4635" windowWidth="28800" windowHeight="14145" xr2:uid="{6B7BE431-FEF4-45DF-A3D6-407DF9E8CA10}"/>
   </bookViews>
   <sheets>
     <sheet name="大乐透" sheetId="1" r:id="rId1"/>
@@ -400,8 +400,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFB941F-1E7D-41A4-9DD8-980B1938842B}">
-  <dimension ref="A1:G2724"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C291069-67F6-46D1-8FB1-AEA92B80D17F}">
+  <dimension ref="A1:G2728"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -63059,6 +63059,98 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2725" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2725">
+        <v>29</v>
+      </c>
+      <c r="B2725">
+        <v>32</v>
+      </c>
+      <c r="C2725">
+        <v>15</v>
+      </c>
+      <c r="D2725">
+        <v>28</v>
+      </c>
+      <c r="E2725">
+        <v>12</v>
+      </c>
+      <c r="F2725">
+        <v>11</v>
+      </c>
+      <c r="G2725">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2726">
+        <v>12</v>
+      </c>
+      <c r="B2726">
+        <v>10</v>
+      </c>
+      <c r="C2726">
+        <v>29</v>
+      </c>
+      <c r="D2726">
+        <v>11</v>
+      </c>
+      <c r="E2726">
+        <v>9</v>
+      </c>
+      <c r="F2726">
+        <v>10</v>
+      </c>
+      <c r="G2726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2727">
+        <v>21</v>
+      </c>
+      <c r="B2727">
+        <v>11</v>
+      </c>
+      <c r="C2727">
+        <v>23</v>
+      </c>
+      <c r="D2727">
+        <v>15</v>
+      </c>
+      <c r="E2727">
+        <v>6</v>
+      </c>
+      <c r="F2727">
+        <v>7</v>
+      </c>
+      <c r="G2727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2728">
+        <v>26</v>
+      </c>
+      <c r="B2728">
+        <v>10</v>
+      </c>
+      <c r="C2728">
+        <v>11</v>
+      </c>
+      <c r="D2728">
+        <v>9</v>
+      </c>
+      <c r="E2728">
+        <v>3</v>
+      </c>
+      <c r="F2728">
+        <v>1</v>
+      </c>
+      <c r="G2728">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/大乐透.xlsx
+++ b/大乐透.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_双色球预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8091B9C-FF50-4163-B562-E2B34120BB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23F52366-C884-4939-A0C2-D602B28721D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="4635" windowWidth="28800" windowHeight="14145" xr2:uid="{6B7BE431-FEF4-45DF-A3D6-407DF9E8CA10}"/>
+    <workbookView xWindow="2205" yWindow="4335" windowWidth="28800" windowHeight="15345" xr2:uid="{05B81DB5-C088-4F5B-91DB-0FBEA2BC5B31}"/>
   </bookViews>
   <sheets>
     <sheet name="大乐透" sheetId="1" r:id="rId1"/>
@@ -400,8 +400,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C291069-67F6-46D1-8FB1-AEA92B80D17F}">
-  <dimension ref="A1:G2728"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D5579-4040-4EB4-83E1-0859C1F91B66}">
+  <dimension ref="A1:G2732"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -63151,6 +63151,98 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2729" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2729">
+        <v>34</v>
+      </c>
+      <c r="B2729">
+        <v>12</v>
+      </c>
+      <c r="C2729">
+        <v>19</v>
+      </c>
+      <c r="D2729">
+        <v>33</v>
+      </c>
+      <c r="E2729">
+        <v>14</v>
+      </c>
+      <c r="F2729">
+        <v>1</v>
+      </c>
+      <c r="G2729">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2730">
+        <v>28</v>
+      </c>
+      <c r="B2730">
+        <v>2</v>
+      </c>
+      <c r="C2730">
+        <v>16</v>
+      </c>
+      <c r="D2730">
+        <v>23</v>
+      </c>
+      <c r="E2730">
+        <v>11</v>
+      </c>
+      <c r="F2730">
+        <v>5</v>
+      </c>
+      <c r="G2730">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2731">
+        <v>20</v>
+      </c>
+      <c r="B2731">
+        <v>28</v>
+      </c>
+      <c r="C2731">
+        <v>27</v>
+      </c>
+      <c r="D2731">
+        <v>29</v>
+      </c>
+      <c r="E2731">
+        <v>14</v>
+      </c>
+      <c r="F2731">
+        <v>10</v>
+      </c>
+      <c r="G2731">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2732">
+        <v>5</v>
+      </c>
+      <c r="B2732">
+        <v>29</v>
+      </c>
+      <c r="C2732">
+        <v>32</v>
+      </c>
+      <c r="D2732">
+        <v>18</v>
+      </c>
+      <c r="E2732">
+        <v>26</v>
+      </c>
+      <c r="F2732">
+        <v>7</v>
+      </c>
+      <c r="G2732">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/大乐透.xlsx
+++ b/大乐透.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_双色球预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23F52366-C884-4939-A0C2-D602B28721D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E67274D6-CB63-4AF3-B740-89F3AE734251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="4335" windowWidth="28800" windowHeight="15345" xr2:uid="{05B81DB5-C088-4F5B-91DB-0FBEA2BC5B31}"/>
+    <workbookView xWindow="5625" yWindow="3525" windowWidth="28800" windowHeight="15345" xr2:uid="{F8691184-C5EE-429A-9AED-17C3E3E4BD33}"/>
   </bookViews>
   <sheets>
     <sheet name="大乐透" sheetId="1" r:id="rId1"/>
@@ -400,8 +400,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D5579-4040-4EB4-83E1-0859C1F91B66}">
-  <dimension ref="A1:G2732"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB9F763-46AB-4F72-9CE5-2E0E5E41973E}">
+  <dimension ref="A1:G2743"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -63243,6 +63243,259 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2733" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2733">
+        <v>20</v>
+      </c>
+      <c r="B2733">
+        <v>18</v>
+      </c>
+      <c r="C2733">
+        <v>10</v>
+      </c>
+      <c r="D2733">
+        <v>34</v>
+      </c>
+      <c r="E2733">
+        <v>5</v>
+      </c>
+      <c r="F2733">
+        <v>1</v>
+      </c>
+      <c r="G2733">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2734">
+        <v>33</v>
+      </c>
+      <c r="B2734">
+        <v>25</v>
+      </c>
+      <c r="C2734">
+        <v>35</v>
+      </c>
+      <c r="D2734">
+        <v>32</v>
+      </c>
+      <c r="E2734">
+        <v>7</v>
+      </c>
+      <c r="F2734">
+        <v>9</v>
+      </c>
+      <c r="G2734">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2735">
+        <v>34</v>
+      </c>
+      <c r="B2735">
+        <v>27</v>
+      </c>
+      <c r="C2735">
+        <v>15</v>
+      </c>
+      <c r="D2735">
+        <v>28</v>
+      </c>
+      <c r="E2735">
+        <v>18</v>
+      </c>
+      <c r="F2735">
+        <v>3</v>
+      </c>
+      <c r="G2735">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2736">
+        <v>12</v>
+      </c>
+      <c r="B2736">
+        <v>22</v>
+      </c>
+      <c r="C2736">
+        <v>6</v>
+      </c>
+      <c r="D2736">
+        <v>21</v>
+      </c>
+      <c r="E2736">
+        <v>10</v>
+      </c>
+      <c r="F2736">
+        <v>1</v>
+      </c>
+      <c r="G2736">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2737">
+        <v>20</v>
+      </c>
+      <c r="B2737">
+        <v>4</v>
+      </c>
+      <c r="C2737">
+        <v>1</v>
+      </c>
+      <c r="D2737">
+        <v>17</v>
+      </c>
+      <c r="E2737">
+        <v>22</v>
+      </c>
+      <c r="F2737">
+        <v>10</v>
+      </c>
+      <c r="G2737">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2738">
+        <v>7</v>
+      </c>
+      <c r="B2738">
+        <v>4</v>
+      </c>
+      <c r="C2738">
+        <v>33</v>
+      </c>
+      <c r="D2738">
+        <v>6</v>
+      </c>
+      <c r="E2738">
+        <v>34</v>
+      </c>
+      <c r="F2738">
+        <v>10</v>
+      </c>
+      <c r="G2738">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2739">
+        <v>22</v>
+      </c>
+      <c r="B2739">
+        <v>9</v>
+      </c>
+      <c r="C2739">
+        <v>8</v>
+      </c>
+      <c r="D2739">
+        <v>20</v>
+      </c>
+      <c r="E2739">
+        <v>15</v>
+      </c>
+      <c r="F2739">
+        <v>12</v>
+      </c>
+      <c r="G2739">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2740">
+        <v>8</v>
+      </c>
+      <c r="B2740">
+        <v>1</v>
+      </c>
+      <c r="C2740">
+        <v>25</v>
+      </c>
+      <c r="D2740">
+        <v>31</v>
+      </c>
+      <c r="E2740">
+        <v>33</v>
+      </c>
+      <c r="F2740">
+        <v>5</v>
+      </c>
+      <c r="G2740">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2741" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2741">
+        <v>7</v>
+      </c>
+      <c r="B2741">
+        <v>4</v>
+      </c>
+      <c r="C2741">
+        <v>15</v>
+      </c>
+      <c r="D2741">
+        <v>24</v>
+      </c>
+      <c r="E2741">
+        <v>29</v>
+      </c>
+      <c r="F2741">
+        <v>4</v>
+      </c>
+      <c r="G2741">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2742">
+        <v>1</v>
+      </c>
+      <c r="B2742">
+        <v>17</v>
+      </c>
+      <c r="C2742">
+        <v>4</v>
+      </c>
+      <c r="D2742">
+        <v>34</v>
+      </c>
+      <c r="E2742">
+        <v>33</v>
+      </c>
+      <c r="F2742">
+        <v>3</v>
+      </c>
+      <c r="G2742">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2743">
+        <v>11</v>
+      </c>
+      <c r="B2743">
+        <v>18</v>
+      </c>
+      <c r="C2743">
+        <v>2</v>
+      </c>
+      <c r="D2743">
+        <v>15</v>
+      </c>
+      <c r="E2743">
+        <v>21</v>
+      </c>
+      <c r="F2743">
+        <v>10</v>
+      </c>
+      <c r="G2743">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/大乐透.xlsx
+++ b/大乐透.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_双色球预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E67274D6-CB63-4AF3-B740-89F3AE734251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF7572C5-33DA-43AC-B72C-CC982D3338AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="3525" windowWidth="28800" windowHeight="15345" xr2:uid="{F8691184-C5EE-429A-9AED-17C3E3E4BD33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{17A1E057-72A3-4332-B3F7-EF3EE56D7CC5}"/>
   </bookViews>
   <sheets>
     <sheet name="大乐透" sheetId="1" r:id="rId1"/>
@@ -400,8 +400,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB9F763-46AB-4F72-9CE5-2E0E5E41973E}">
-  <dimension ref="A1:G2743"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40E3047-C8F1-49A9-8F68-A983BB4B48CF}">
+  <dimension ref="A1:G2806"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -63496,6 +63496,1455 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2744" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2744">
+        <v>12</v>
+      </c>
+      <c r="B2744">
+        <v>35</v>
+      </c>
+      <c r="C2744">
+        <v>8</v>
+      </c>
+      <c r="D2744">
+        <v>16</v>
+      </c>
+      <c r="E2744">
+        <v>19</v>
+      </c>
+      <c r="F2744">
+        <v>6</v>
+      </c>
+      <c r="G2744">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2745">
+        <v>22</v>
+      </c>
+      <c r="B2745">
+        <v>25</v>
+      </c>
+      <c r="C2745">
+        <v>29</v>
+      </c>
+      <c r="D2745">
+        <v>11</v>
+      </c>
+      <c r="E2745">
+        <v>18</v>
+      </c>
+      <c r="F2745">
+        <v>12</v>
+      </c>
+      <c r="G2745">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2746" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2746">
+        <v>19</v>
+      </c>
+      <c r="B2746">
+        <v>12</v>
+      </c>
+      <c r="C2746">
+        <v>14</v>
+      </c>
+      <c r="D2746">
+        <v>28</v>
+      </c>
+      <c r="E2746">
+        <v>16</v>
+      </c>
+      <c r="F2746">
+        <v>4</v>
+      </c>
+      <c r="G2746">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2747">
+        <v>24</v>
+      </c>
+      <c r="B2747">
+        <v>10</v>
+      </c>
+      <c r="C2747">
+        <v>7</v>
+      </c>
+      <c r="D2747">
+        <v>15</v>
+      </c>
+      <c r="E2747">
+        <v>21</v>
+      </c>
+      <c r="F2747">
+        <v>6</v>
+      </c>
+      <c r="G2747">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2748">
+        <v>34</v>
+      </c>
+      <c r="B2748">
+        <v>32</v>
+      </c>
+      <c r="C2748">
+        <v>2</v>
+      </c>
+      <c r="D2748">
+        <v>35</v>
+      </c>
+      <c r="E2748">
+        <v>14</v>
+      </c>
+      <c r="F2748">
+        <v>11</v>
+      </c>
+      <c r="G2748">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2749">
+        <v>22</v>
+      </c>
+      <c r="B2749">
+        <v>18</v>
+      </c>
+      <c r="C2749">
+        <v>24</v>
+      </c>
+      <c r="D2749">
+        <v>9</v>
+      </c>
+      <c r="E2749">
+        <v>10</v>
+      </c>
+      <c r="F2749">
+        <v>3</v>
+      </c>
+      <c r="G2749">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2750">
+        <v>1</v>
+      </c>
+      <c r="B2750">
+        <v>4</v>
+      </c>
+      <c r="C2750">
+        <v>15</v>
+      </c>
+      <c r="D2750">
+        <v>18</v>
+      </c>
+      <c r="E2750">
+        <v>6</v>
+      </c>
+      <c r="F2750">
+        <v>3</v>
+      </c>
+      <c r="G2750">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2751">
+        <v>26</v>
+      </c>
+      <c r="B2751">
+        <v>4</v>
+      </c>
+      <c r="C2751">
+        <v>2</v>
+      </c>
+      <c r="D2751">
+        <v>12</v>
+      </c>
+      <c r="E2751">
+        <v>3</v>
+      </c>
+      <c r="F2751">
+        <v>1</v>
+      </c>
+      <c r="G2751">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2752">
+        <v>17</v>
+      </c>
+      <c r="B2752">
+        <v>18</v>
+      </c>
+      <c r="C2752">
+        <v>34</v>
+      </c>
+      <c r="D2752">
+        <v>20</v>
+      </c>
+      <c r="E2752">
+        <v>12</v>
+      </c>
+      <c r="F2752">
+        <v>5</v>
+      </c>
+      <c r="G2752">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2753">
+        <v>29</v>
+      </c>
+      <c r="B2753">
+        <v>13</v>
+      </c>
+      <c r="C2753">
+        <v>18</v>
+      </c>
+      <c r="D2753">
+        <v>11</v>
+      </c>
+      <c r="E2753">
+        <v>9</v>
+      </c>
+      <c r="F2753">
+        <v>4</v>
+      </c>
+      <c r="G2753">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2754">
+        <v>33</v>
+      </c>
+      <c r="B2754">
+        <v>2</v>
+      </c>
+      <c r="C2754">
+        <v>5</v>
+      </c>
+      <c r="D2754">
+        <v>14</v>
+      </c>
+      <c r="E2754">
+        <v>9</v>
+      </c>
+      <c r="F2754">
+        <v>4</v>
+      </c>
+      <c r="G2754">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2755">
+        <v>2</v>
+      </c>
+      <c r="B2755">
+        <v>33</v>
+      </c>
+      <c r="C2755">
+        <v>6</v>
+      </c>
+      <c r="D2755">
+        <v>23</v>
+      </c>
+      <c r="E2755">
+        <v>24</v>
+      </c>
+      <c r="F2755">
+        <v>1</v>
+      </c>
+      <c r="G2755">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2756">
+        <v>20</v>
+      </c>
+      <c r="B2756">
+        <v>5</v>
+      </c>
+      <c r="C2756">
+        <v>16</v>
+      </c>
+      <c r="D2756">
+        <v>13</v>
+      </c>
+      <c r="E2756">
+        <v>14</v>
+      </c>
+      <c r="F2756">
+        <v>8</v>
+      </c>
+      <c r="G2756">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2757">
+        <v>35</v>
+      </c>
+      <c r="B2757">
+        <v>10</v>
+      </c>
+      <c r="C2757">
+        <v>9</v>
+      </c>
+      <c r="D2757">
+        <v>11</v>
+      </c>
+      <c r="E2757">
+        <v>8</v>
+      </c>
+      <c r="F2757">
+        <v>11</v>
+      </c>
+      <c r="G2757">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2758">
+        <v>32</v>
+      </c>
+      <c r="B2758">
+        <v>2</v>
+      </c>
+      <c r="C2758">
+        <v>34</v>
+      </c>
+      <c r="D2758">
+        <v>12</v>
+      </c>
+      <c r="E2758">
+        <v>11</v>
+      </c>
+      <c r="F2758">
+        <v>10</v>
+      </c>
+      <c r="G2758">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2759">
+        <v>6</v>
+      </c>
+      <c r="B2759">
+        <v>19</v>
+      </c>
+      <c r="C2759">
+        <v>14</v>
+      </c>
+      <c r="D2759">
+        <v>22</v>
+      </c>
+      <c r="E2759">
+        <v>27</v>
+      </c>
+      <c r="F2759">
+        <v>4</v>
+      </c>
+      <c r="G2759">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2760">
+        <v>25</v>
+      </c>
+      <c r="B2760">
+        <v>27</v>
+      </c>
+      <c r="C2760">
+        <v>1</v>
+      </c>
+      <c r="D2760">
+        <v>22</v>
+      </c>
+      <c r="E2760">
+        <v>19</v>
+      </c>
+      <c r="F2760">
+        <v>10</v>
+      </c>
+      <c r="G2760">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2761">
+        <v>10</v>
+      </c>
+      <c r="B2761">
+        <v>4</v>
+      </c>
+      <c r="C2761">
+        <v>25</v>
+      </c>
+      <c r="D2761">
+        <v>32</v>
+      </c>
+      <c r="E2761">
+        <v>17</v>
+      </c>
+      <c r="F2761">
+        <v>5</v>
+      </c>
+      <c r="G2761">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2762">
+        <v>16</v>
+      </c>
+      <c r="B2762">
+        <v>9</v>
+      </c>
+      <c r="C2762">
+        <v>1</v>
+      </c>
+      <c r="D2762">
+        <v>7</v>
+      </c>
+      <c r="E2762">
+        <v>30</v>
+      </c>
+      <c r="F2762">
+        <v>5</v>
+      </c>
+      <c r="G2762">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2763">
+        <v>30</v>
+      </c>
+      <c r="B2763">
+        <v>9</v>
+      </c>
+      <c r="C2763">
+        <v>33</v>
+      </c>
+      <c r="D2763">
+        <v>17</v>
+      </c>
+      <c r="E2763">
+        <v>4</v>
+      </c>
+      <c r="F2763">
+        <v>5</v>
+      </c>
+      <c r="G2763">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2764">
+        <v>13</v>
+      </c>
+      <c r="B2764">
+        <v>19</v>
+      </c>
+      <c r="C2764">
+        <v>14</v>
+      </c>
+      <c r="D2764">
+        <v>7</v>
+      </c>
+      <c r="E2764">
+        <v>27</v>
+      </c>
+      <c r="F2764">
+        <v>10</v>
+      </c>
+      <c r="G2764">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2765">
+        <v>24</v>
+      </c>
+      <c r="B2765">
+        <v>22</v>
+      </c>
+      <c r="C2765">
+        <v>2</v>
+      </c>
+      <c r="D2765">
+        <v>17</v>
+      </c>
+      <c r="E2765">
+        <v>11</v>
+      </c>
+      <c r="F2765">
+        <v>7</v>
+      </c>
+      <c r="G2765">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2766">
+        <v>25</v>
+      </c>
+      <c r="B2766">
+        <v>32</v>
+      </c>
+      <c r="C2766">
+        <v>5</v>
+      </c>
+      <c r="D2766">
+        <v>34</v>
+      </c>
+      <c r="E2766">
+        <v>24</v>
+      </c>
+      <c r="F2766">
+        <v>9</v>
+      </c>
+      <c r="G2766">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2767">
+        <v>7</v>
+      </c>
+      <c r="B2767">
+        <v>9</v>
+      </c>
+      <c r="C2767">
+        <v>10</v>
+      </c>
+      <c r="D2767">
+        <v>23</v>
+      </c>
+      <c r="E2767">
+        <v>1</v>
+      </c>
+      <c r="F2767">
+        <v>12</v>
+      </c>
+      <c r="G2767">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2768">
+        <v>31</v>
+      </c>
+      <c r="B2768">
+        <v>20</v>
+      </c>
+      <c r="C2768">
+        <v>12</v>
+      </c>
+      <c r="D2768">
+        <v>6</v>
+      </c>
+      <c r="E2768">
+        <v>26</v>
+      </c>
+      <c r="F2768">
+        <v>4</v>
+      </c>
+      <c r="G2768">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2769">
+        <v>32</v>
+      </c>
+      <c r="B2769">
+        <v>34</v>
+      </c>
+      <c r="C2769">
+        <v>26</v>
+      </c>
+      <c r="D2769">
+        <v>28</v>
+      </c>
+      <c r="E2769">
+        <v>35</v>
+      </c>
+      <c r="F2769">
+        <v>2</v>
+      </c>
+      <c r="G2769">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2770">
+        <v>7</v>
+      </c>
+      <c r="B2770">
+        <v>26</v>
+      </c>
+      <c r="C2770">
+        <v>5</v>
+      </c>
+      <c r="D2770">
+        <v>32</v>
+      </c>
+      <c r="E2770">
+        <v>19</v>
+      </c>
+      <c r="F2770">
+        <v>9</v>
+      </c>
+      <c r="G2770">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2771">
+        <v>10</v>
+      </c>
+      <c r="B2771">
+        <v>9</v>
+      </c>
+      <c r="C2771">
+        <v>28</v>
+      </c>
+      <c r="D2771">
+        <v>26</v>
+      </c>
+      <c r="E2771">
+        <v>13</v>
+      </c>
+      <c r="F2771">
+        <v>4</v>
+      </c>
+      <c r="G2771">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2772">
+        <v>5</v>
+      </c>
+      <c r="B2772">
+        <v>34</v>
+      </c>
+      <c r="C2772">
+        <v>8</v>
+      </c>
+      <c r="D2772">
+        <v>32</v>
+      </c>
+      <c r="E2772">
+        <v>19</v>
+      </c>
+      <c r="F2772">
+        <v>5</v>
+      </c>
+      <c r="G2772">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2773">
+        <v>34</v>
+      </c>
+      <c r="B2773">
+        <v>6</v>
+      </c>
+      <c r="C2773">
+        <v>9</v>
+      </c>
+      <c r="D2773">
+        <v>2</v>
+      </c>
+      <c r="E2773">
+        <v>22</v>
+      </c>
+      <c r="F2773">
+        <v>8</v>
+      </c>
+      <c r="G2773">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2774">
+        <v>28</v>
+      </c>
+      <c r="B2774">
+        <v>16</v>
+      </c>
+      <c r="C2774">
+        <v>34</v>
+      </c>
+      <c r="D2774">
+        <v>25</v>
+      </c>
+      <c r="E2774">
+        <v>15</v>
+      </c>
+      <c r="F2774">
+        <v>12</v>
+      </c>
+      <c r="G2774">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2775">
+        <v>29</v>
+      </c>
+      <c r="B2775">
+        <v>6</v>
+      </c>
+      <c r="C2775">
+        <v>5</v>
+      </c>
+      <c r="D2775">
+        <v>11</v>
+      </c>
+      <c r="E2775">
+        <v>26</v>
+      </c>
+      <c r="F2775">
+        <v>10</v>
+      </c>
+      <c r="G2775">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2776">
+        <v>15</v>
+      </c>
+      <c r="B2776">
+        <v>7</v>
+      </c>
+      <c r="C2776">
+        <v>5</v>
+      </c>
+      <c r="D2776">
+        <v>8</v>
+      </c>
+      <c r="E2776">
+        <v>33</v>
+      </c>
+      <c r="F2776">
+        <v>10</v>
+      </c>
+      <c r="G2776">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2777">
+        <v>21</v>
+      </c>
+      <c r="B2777">
+        <v>29</v>
+      </c>
+      <c r="C2777">
+        <v>24</v>
+      </c>
+      <c r="D2777">
+        <v>18</v>
+      </c>
+      <c r="E2777">
+        <v>14</v>
+      </c>
+      <c r="F2777">
+        <v>6</v>
+      </c>
+      <c r="G2777">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2778">
+        <v>26</v>
+      </c>
+      <c r="B2778">
+        <v>8</v>
+      </c>
+      <c r="C2778">
+        <v>4</v>
+      </c>
+      <c r="D2778">
+        <v>13</v>
+      </c>
+      <c r="E2778">
+        <v>10</v>
+      </c>
+      <c r="F2778">
+        <v>10</v>
+      </c>
+      <c r="G2778">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2779">
+        <v>22</v>
+      </c>
+      <c r="B2779">
+        <v>30</v>
+      </c>
+      <c r="C2779">
+        <v>1</v>
+      </c>
+      <c r="D2779">
+        <v>31</v>
+      </c>
+      <c r="E2779">
+        <v>15</v>
+      </c>
+      <c r="F2779">
+        <v>8</v>
+      </c>
+      <c r="G2779">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2780">
+        <v>2</v>
+      </c>
+      <c r="B2780">
+        <v>21</v>
+      </c>
+      <c r="C2780">
+        <v>9</v>
+      </c>
+      <c r="D2780">
+        <v>14</v>
+      </c>
+      <c r="E2780">
+        <v>26</v>
+      </c>
+      <c r="F2780">
+        <v>2</v>
+      </c>
+      <c r="G2780">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2781">
+        <v>23</v>
+      </c>
+      <c r="B2781">
+        <v>3</v>
+      </c>
+      <c r="C2781">
+        <v>21</v>
+      </c>
+      <c r="D2781">
+        <v>4</v>
+      </c>
+      <c r="E2781">
+        <v>24</v>
+      </c>
+      <c r="F2781">
+        <v>9</v>
+      </c>
+      <c r="G2781">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2782">
+        <v>35</v>
+      </c>
+      <c r="B2782">
+        <v>18</v>
+      </c>
+      <c r="C2782">
+        <v>1</v>
+      </c>
+      <c r="D2782">
+        <v>14</v>
+      </c>
+      <c r="E2782">
+        <v>28</v>
+      </c>
+      <c r="F2782">
+        <v>3</v>
+      </c>
+      <c r="G2782">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2783">
+        <v>16</v>
+      </c>
+      <c r="B2783">
+        <v>12</v>
+      </c>
+      <c r="C2783">
+        <v>8</v>
+      </c>
+      <c r="D2783">
+        <v>3</v>
+      </c>
+      <c r="E2783">
+        <v>9</v>
+      </c>
+      <c r="F2783">
+        <v>1</v>
+      </c>
+      <c r="G2783">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2784">
+        <v>3</v>
+      </c>
+      <c r="B2784">
+        <v>21</v>
+      </c>
+      <c r="C2784">
+        <v>12</v>
+      </c>
+      <c r="D2784">
+        <v>35</v>
+      </c>
+      <c r="E2784">
+        <v>14</v>
+      </c>
+      <c r="F2784">
+        <v>5</v>
+      </c>
+      <c r="G2784">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2785" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2785">
+        <v>16</v>
+      </c>
+      <c r="B2785">
+        <v>2</v>
+      </c>
+      <c r="C2785">
+        <v>29</v>
+      </c>
+      <c r="D2785">
+        <v>6</v>
+      </c>
+      <c r="E2785">
+        <v>22</v>
+      </c>
+      <c r="F2785">
+        <v>12</v>
+      </c>
+      <c r="G2785">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2786" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2786">
+        <v>29</v>
+      </c>
+      <c r="B2786">
+        <v>10</v>
+      </c>
+      <c r="C2786">
+        <v>21</v>
+      </c>
+      <c r="D2786">
+        <v>5</v>
+      </c>
+      <c r="E2786">
+        <v>18</v>
+      </c>
+      <c r="F2786">
+        <v>7</v>
+      </c>
+      <c r="G2786">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2787" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2787">
+        <v>8</v>
+      </c>
+      <c r="B2787">
+        <v>12</v>
+      </c>
+      <c r="C2787">
+        <v>21</v>
+      </c>
+      <c r="D2787">
+        <v>9</v>
+      </c>
+      <c r="E2787">
+        <v>2</v>
+      </c>
+      <c r="F2787">
+        <v>4</v>
+      </c>
+      <c r="G2787">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2788" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2788">
+        <v>29</v>
+      </c>
+      <c r="B2788">
+        <v>15</v>
+      </c>
+      <c r="C2788">
+        <v>8</v>
+      </c>
+      <c r="D2788">
+        <v>31</v>
+      </c>
+      <c r="E2788">
+        <v>27</v>
+      </c>
+      <c r="F2788">
+        <v>7</v>
+      </c>
+      <c r="G2788">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2789" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2789">
+        <v>35</v>
+      </c>
+      <c r="B2789">
+        <v>11</v>
+      </c>
+      <c r="C2789">
+        <v>22</v>
+      </c>
+      <c r="D2789">
+        <v>13</v>
+      </c>
+      <c r="E2789">
+        <v>26</v>
+      </c>
+      <c r="F2789">
+        <v>8</v>
+      </c>
+      <c r="G2789">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2790">
+        <v>13</v>
+      </c>
+      <c r="B2790">
+        <v>8</v>
+      </c>
+      <c r="C2790">
+        <v>3</v>
+      </c>
+      <c r="D2790">
+        <v>2</v>
+      </c>
+      <c r="E2790">
+        <v>21</v>
+      </c>
+      <c r="F2790">
+        <v>12</v>
+      </c>
+      <c r="G2790">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2791" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2791">
+        <v>6</v>
+      </c>
+      <c r="B2791">
+        <v>3</v>
+      </c>
+      <c r="C2791">
+        <v>2</v>
+      </c>
+      <c r="D2791">
+        <v>16</v>
+      </c>
+      <c r="E2791">
+        <v>17</v>
+      </c>
+      <c r="F2791">
+        <v>5</v>
+      </c>
+      <c r="G2791">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2792" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2792">
+        <v>31</v>
+      </c>
+      <c r="B2792">
+        <v>8</v>
+      </c>
+      <c r="C2792">
+        <v>13</v>
+      </c>
+      <c r="D2792">
+        <v>24</v>
+      </c>
+      <c r="E2792">
+        <v>25</v>
+      </c>
+      <c r="F2792">
+        <v>10</v>
+      </c>
+      <c r="G2792">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2793" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2793">
+        <v>14</v>
+      </c>
+      <c r="B2793">
+        <v>6</v>
+      </c>
+      <c r="C2793">
+        <v>9</v>
+      </c>
+      <c r="D2793">
+        <v>26</v>
+      </c>
+      <c r="E2793">
+        <v>27</v>
+      </c>
+      <c r="F2793">
+        <v>8</v>
+      </c>
+      <c r="G2793">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2794">
+        <v>11</v>
+      </c>
+      <c r="B2794">
+        <v>19</v>
+      </c>
+      <c r="C2794">
+        <v>10</v>
+      </c>
+      <c r="D2794">
+        <v>35</v>
+      </c>
+      <c r="E2794">
+        <v>13</v>
+      </c>
+      <c r="F2794">
+        <v>4</v>
+      </c>
+      <c r="G2794">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2795">
+        <v>1</v>
+      </c>
+      <c r="B2795">
+        <v>27</v>
+      </c>
+      <c r="C2795">
+        <v>30</v>
+      </c>
+      <c r="D2795">
+        <v>18</v>
+      </c>
+      <c r="E2795">
+        <v>8</v>
+      </c>
+      <c r="F2795">
+        <v>6</v>
+      </c>
+      <c r="G2795">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2796">
+        <v>28</v>
+      </c>
+      <c r="B2796">
+        <v>4</v>
+      </c>
+      <c r="C2796">
+        <v>5</v>
+      </c>
+      <c r="D2796">
+        <v>19</v>
+      </c>
+      <c r="E2796">
+        <v>29</v>
+      </c>
+      <c r="F2796">
+        <v>5</v>
+      </c>
+      <c r="G2796">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2797">
+        <v>6</v>
+      </c>
+      <c r="B2797">
+        <v>3</v>
+      </c>
+      <c r="C2797">
+        <v>30</v>
+      </c>
+      <c r="D2797">
+        <v>33</v>
+      </c>
+      <c r="E2797">
+        <v>26</v>
+      </c>
+      <c r="F2797">
+        <v>12</v>
+      </c>
+      <c r="G2797">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2798">
+        <v>35</v>
+      </c>
+      <c r="B2798">
+        <v>9</v>
+      </c>
+      <c r="C2798">
+        <v>28</v>
+      </c>
+      <c r="D2798">
+        <v>3</v>
+      </c>
+      <c r="E2798">
+        <v>14</v>
+      </c>
+      <c r="F2798">
+        <v>2</v>
+      </c>
+      <c r="G2798">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2799">
+        <v>13</v>
+      </c>
+      <c r="B2799">
+        <v>1</v>
+      </c>
+      <c r="C2799">
+        <v>27</v>
+      </c>
+      <c r="D2799">
+        <v>29</v>
+      </c>
+      <c r="E2799">
+        <v>16</v>
+      </c>
+      <c r="F2799">
+        <v>2</v>
+      </c>
+      <c r="G2799">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2800">
+        <v>8</v>
+      </c>
+      <c r="B2800">
+        <v>29</v>
+      </c>
+      <c r="C2800">
+        <v>25</v>
+      </c>
+      <c r="D2800">
+        <v>3</v>
+      </c>
+      <c r="E2800">
+        <v>32</v>
+      </c>
+      <c r="F2800">
+        <v>9</v>
+      </c>
+      <c r="G2800">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2801">
+        <v>9</v>
+      </c>
+      <c r="B2801">
+        <v>19</v>
+      </c>
+      <c r="C2801">
+        <v>12</v>
+      </c>
+      <c r="D2801">
+        <v>1</v>
+      </c>
+      <c r="E2801">
+        <v>10</v>
+      </c>
+      <c r="F2801">
+        <v>6</v>
+      </c>
+      <c r="G2801">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2802" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2802">
+        <v>23</v>
+      </c>
+      <c r="B2802">
+        <v>27</v>
+      </c>
+      <c r="C2802">
+        <v>11</v>
+      </c>
+      <c r="D2802">
+        <v>35</v>
+      </c>
+      <c r="E2802">
+        <v>4</v>
+      </c>
+      <c r="F2802">
+        <v>11</v>
+      </c>
+      <c r="G2802">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2803" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2803">
+        <v>33</v>
+      </c>
+      <c r="B2803">
+        <v>7</v>
+      </c>
+      <c r="C2803">
+        <v>12</v>
+      </c>
+      <c r="D2803">
+        <v>18</v>
+      </c>
+      <c r="E2803">
+        <v>27</v>
+      </c>
+      <c r="F2803">
+        <v>9</v>
+      </c>
+      <c r="G2803">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2804" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2804">
+        <v>10</v>
+      </c>
+      <c r="B2804">
+        <v>2</v>
+      </c>
+      <c r="C2804">
+        <v>32</v>
+      </c>
+      <c r="D2804">
+        <v>16</v>
+      </c>
+      <c r="E2804">
+        <v>28</v>
+      </c>
+      <c r="F2804">
+        <v>7</v>
+      </c>
+      <c r="G2804">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2805" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2805">
+        <v>16</v>
+      </c>
+      <c r="B2805">
+        <v>23</v>
+      </c>
+      <c r="C2805">
+        <v>15</v>
+      </c>
+      <c r="D2805">
+        <v>11</v>
+      </c>
+      <c r="E2805">
+        <v>7</v>
+      </c>
+      <c r="F2805">
+        <v>11</v>
+      </c>
+      <c r="G2805">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2806" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2806">
+        <v>11</v>
+      </c>
+      <c r="B2806">
+        <v>8</v>
+      </c>
+      <c r="C2806">
+        <v>9</v>
+      </c>
+      <c r="D2806">
+        <v>7</v>
+      </c>
+      <c r="E2806">
+        <v>22</v>
+      </c>
+      <c r="F2806">
+        <v>5</v>
+      </c>
+      <c r="G2806">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/大乐透.xlsx
+++ b/大乐透.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_双色球预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF7572C5-33DA-43AC-B72C-CC982D3338AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44651C3E-37D2-43FB-9B40-0010B99807DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{17A1E057-72A3-4332-B3F7-EF3EE56D7CC5}"/>
+    <workbookView xWindow="4605" yWindow="3630" windowWidth="28800" windowHeight="15345" xr2:uid="{A2D9818A-D2FD-462A-960F-7B361DC993D7}"/>
   </bookViews>
   <sheets>
     <sheet name="大乐透" sheetId="1" r:id="rId1"/>
@@ -400,8 +400,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40E3047-C8F1-49A9-8F68-A983BB4B48CF}">
-  <dimension ref="A1:G2806"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA16A94E-3451-48A0-A333-A2A75295727B}">
+  <dimension ref="A1:G2818"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -64945,6 +64945,282 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2807" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2807">
+        <v>3</v>
+      </c>
+      <c r="B2807">
+        <v>19</v>
+      </c>
+      <c r="C2807">
+        <v>23</v>
+      </c>
+      <c r="D2807">
+        <v>21</v>
+      </c>
+      <c r="E2807">
+        <v>1</v>
+      </c>
+      <c r="F2807">
+        <v>11</v>
+      </c>
+      <c r="G2807">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2808" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2808">
+        <v>22</v>
+      </c>
+      <c r="B2808">
+        <v>8</v>
+      </c>
+      <c r="C2808">
+        <v>18</v>
+      </c>
+      <c r="D2808">
+        <v>35</v>
+      </c>
+      <c r="E2808">
+        <v>30</v>
+      </c>
+      <c r="F2808">
+        <v>4</v>
+      </c>
+      <c r="G2808">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2809" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2809">
+        <v>18</v>
+      </c>
+      <c r="B2809">
+        <v>34</v>
+      </c>
+      <c r="C2809">
+        <v>4</v>
+      </c>
+      <c r="D2809">
+        <v>5</v>
+      </c>
+      <c r="E2809">
+        <v>13</v>
+      </c>
+      <c r="F2809">
+        <v>8</v>
+      </c>
+      <c r="G2809">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2810" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2810">
+        <v>24</v>
+      </c>
+      <c r="B2810">
+        <v>9</v>
+      </c>
+      <c r="C2810">
+        <v>4</v>
+      </c>
+      <c r="D2810">
+        <v>29</v>
+      </c>
+      <c r="E2810">
+        <v>28</v>
+      </c>
+      <c r="F2810">
+        <v>2</v>
+      </c>
+      <c r="G2810">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2811" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2811">
+        <v>14</v>
+      </c>
+      <c r="B2811">
+        <v>27</v>
+      </c>
+      <c r="C2811">
+        <v>29</v>
+      </c>
+      <c r="D2811">
+        <v>10</v>
+      </c>
+      <c r="E2811">
+        <v>9</v>
+      </c>
+      <c r="F2811">
+        <v>9</v>
+      </c>
+      <c r="G2811">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2812" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2812">
+        <v>24</v>
+      </c>
+      <c r="B2812">
+        <v>3</v>
+      </c>
+      <c r="C2812">
+        <v>29</v>
+      </c>
+      <c r="D2812">
+        <v>18</v>
+      </c>
+      <c r="E2812">
+        <v>4</v>
+      </c>
+      <c r="F2812">
+        <v>7</v>
+      </c>
+      <c r="G2812">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2813" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2813">
+        <v>2</v>
+      </c>
+      <c r="B2813">
+        <v>5</v>
+      </c>
+      <c r="C2813">
+        <v>28</v>
+      </c>
+      <c r="D2813">
+        <v>13</v>
+      </c>
+      <c r="E2813">
+        <v>15</v>
+      </c>
+      <c r="F2813">
+        <v>5</v>
+      </c>
+      <c r="G2813">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2814" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2814">
+        <v>20</v>
+      </c>
+      <c r="B2814">
+        <v>25</v>
+      </c>
+      <c r="C2814">
+        <v>7</v>
+      </c>
+      <c r="D2814">
+        <v>22</v>
+      </c>
+      <c r="E2814">
+        <v>5</v>
+      </c>
+      <c r="F2814">
+        <v>5</v>
+      </c>
+      <c r="G2814">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2815">
+        <v>22</v>
+      </c>
+      <c r="B2815">
+        <v>6</v>
+      </c>
+      <c r="C2815">
+        <v>11</v>
+      </c>
+      <c r="D2815">
+        <v>16</v>
+      </c>
+      <c r="E2815">
+        <v>13</v>
+      </c>
+      <c r="F2815">
+        <v>3</v>
+      </c>
+      <c r="G2815">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2816">
+        <v>6</v>
+      </c>
+      <c r="B2816">
+        <v>25</v>
+      </c>
+      <c r="C2816">
+        <v>16</v>
+      </c>
+      <c r="D2816">
+        <v>33</v>
+      </c>
+      <c r="E2816">
+        <v>21</v>
+      </c>
+      <c r="F2816">
+        <v>8</v>
+      </c>
+      <c r="G2816">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2817">
+        <v>30</v>
+      </c>
+      <c r="B2817">
+        <v>32</v>
+      </c>
+      <c r="C2817">
+        <v>3</v>
+      </c>
+      <c r="D2817">
+        <v>4</v>
+      </c>
+      <c r="E2817">
+        <v>14</v>
+      </c>
+      <c r="F2817">
+        <v>12</v>
+      </c>
+      <c r="G2817">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2818">
+        <v>24</v>
+      </c>
+      <c r="B2818">
+        <v>31</v>
+      </c>
+      <c r="C2818">
+        <v>32</v>
+      </c>
+      <c r="D2818">
+        <v>26</v>
+      </c>
+      <c r="E2818">
+        <v>30</v>
+      </c>
+      <c r="F2818">
+        <v>5</v>
+      </c>
+      <c r="G2818">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
